--- a/biology/Histoire de la zoologie et de la botanique/William_Neale_Lockington/William_Neale_Lockington.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Neale_Lockington/William_Neale_Lockington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Neale Lockington est un zoologiste britannique, né en 1840 à Rugby et mort en 1902 à Worthing (Sussex de l'Ouest).
 Il est conservateur à la California Academy of Sciences de 1875 à 1881.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1880 : Description of a new species of Agonidae (Brachyopsis verrucosus) from the coast of California. Proc. U. S. Natl. Mus., v. 3 (no 122) : 60–63.
 1880 : Descriptions of new genera and species of fishes from the coast of California. Proc. U. S. Natl. Mus., v. 2 (no 97) : 326–332.
